--- a/excel2json_unity/Assets/Sample/ExcelFolder/SampleXlsx.xlsx
+++ b/excel2json_unity/Assets/Sample/ExcelFolder/SampleXlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowWidth="29340" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="#Sample#" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>StringTest</t>
+    <t>StringField</t>
   </si>
   <si>
     <t>FloatField</t>
   </si>
   <si>
-    <t>ArrayField</t>
+    <t>IntArrayField</t>
+  </si>
+  <si>
+    <t>FloatArrayField</t>
+  </si>
+  <si>
+    <t>StringArrayField</t>
   </si>
   <si>
     <t>Data.Name</t>
@@ -34,9 +40,6 @@
     <t>Data.Age</t>
   </si>
   <si>
-    <t>Money</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,15 +52,18 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>SampleCustomData.string</t>
   </si>
   <si>
     <t>SampleCustomData.int</t>
   </si>
   <si>
-    <t>float[]</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
@@ -70,34 +76,31 @@
     <t>列表测试</t>
   </si>
   <si>
+    <t>float数组</t>
+  </si>
+  <si>
+    <t>字符串数组</t>
+  </si>
+  <si>
     <t>Data字段名字</t>
   </si>
   <si>
     <t>Data字段年龄</t>
   </si>
   <si>
-    <t>float数组</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
     <t>1,3</t>
   </si>
   <si>
+    <t>1.33,13.344,13</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
     <t>Tom</t>
-  </si>
-  <si>
-    <t>1.33,13.344,13</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>4,5,6</t>
-  </si>
-  <si>
-    <t>Jack</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -126,37 +129,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,32 +234,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,62 +266,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,13 +281,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +401,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,32 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +508,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,26 +566,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,145 +578,145 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,24 +1073,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.1442307692308" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.9230769230769" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.9230769230769" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7692307692308" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6153846153846" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.6153846153846" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.2307692307692" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.9230769230769" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7692307692308" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5576923076923" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,94 +1114,91 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:1">
       <c r="A5" s="1">
         <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json_unity/Assets/Sample/ExcelFolder/SampleXlsx.xlsx
+++ b/excel2json_unity/Assets/Sample/ExcelFolder/SampleXlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29340" windowHeight="14740"/>
+    <workbookView windowWidth="29340" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="#Sample#" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Data.Age</t>
   </si>
   <si>
+    <t>EnumField</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>SampleCustomData.int</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>Data字段年龄</t>
   </si>
   <si>
+    <t>国家</t>
+  </si>
+  <si>
     <t>Hello</t>
   </si>
   <si>
@@ -101,6 +110,12 @@
   </si>
   <si>
     <t>Tom</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -108,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -129,7 +144,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,28 +160,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +182,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -190,6 +214,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,23 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,32 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,49 +296,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,55 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,73 +452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,50 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,26 +522,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,151 +561,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="13.1442307692308" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.9230769230769" style="1" customWidth="1"/>
@@ -1092,7 +1107,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,91 +1132,111 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
         <v>12</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I27">
+      <formula1>"China,USA,Japan"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
   <headerFooter/>
